--- a/Trades.xlsx
+++ b/Trades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\PycharmProjects\MQP_Stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CC471B-9A11-4EE1-A431-AD7E8AB37D6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9E36EF-8440-46FE-9464-13EDCE40168A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{F0052E88-CB75-43C6-97DC-BD8F0C6984BE}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
   <si>
     <t>SideA</t>
   </si>
@@ -213,6 +213,27 @@
   </si>
   <si>
     <t>"3,-5,16"</t>
+  </si>
+  <si>
+    <t>23, 56</t>
+  </si>
+  <si>
+    <t>30, 35</t>
+  </si>
+  <si>
+    <t>27, 31</t>
+  </si>
+  <si>
+    <t>32, 46</t>
+  </si>
+  <si>
+    <t>27, 35</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -248,13 +269,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED47F5D6-A450-4749-A9AD-89B2F0F044E1}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1142,6 +1166,15 @@
       <c r="C24">
         <v>2014</v>
       </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
       <c r="J24" s="3">
         <v>54</v>
       </c>
@@ -1159,6 +1192,15 @@
       <c r="C25" s="1">
         <v>2013</v>
       </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
       <c r="J25" s="3">
         <v>54</v>
       </c>
@@ -1176,6 +1218,15 @@
       <c r="C26">
         <v>2013</v>
       </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
       <c r="J26" s="3">
         <v>56</v>
       </c>
@@ -1193,6 +1244,15 @@
       <c r="C27">
         <v>2013</v>
       </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="J27" s="3">
         <v>58</v>
       </c>
@@ -1213,6 +1273,15 @@
       <c r="C28">
         <v>2013</v>
       </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28">
+        <v>54</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
       <c r="J28" s="3">
         <v>60</v>
       </c>
@@ -1230,6 +1299,15 @@
       <c r="C29">
         <v>2013</v>
       </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
       <c r="J29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1247,6 +1325,15 @@
       <c r="C30">
         <v>2013</v>
       </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
@@ -1258,6 +1345,15 @@
       <c r="C31">
         <v>2013</v>
       </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
@@ -1269,8 +1365,17 @@
       <c r="C32">
         <v>2013</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="2">
+        <v>24</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>50</v>
       </c>
@@ -1280,8 +1385,17 @@
       <c r="C33">
         <v>2013</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>47</v>
       </c>
@@ -1290,6 +1404,59 @@
       </c>
       <c r="C34">
         <v>2013</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="2">
+        <v>22</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37">
+        <v>29</v>
+      </c>
+      <c r="C37">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38">
+        <v>2005</v>
       </c>
     </row>
   </sheetData>
